--- a/Mappings/FluidBalance - STU3.xlsx
+++ b/Mappings/FluidBalance - STU3.xlsx
@@ -10,15 +10,16 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="Terms of Use" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="Terms of Use" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
   <si>
     <t>Subject</t>
   </si>
@@ -363,13 +364,79 @@
   </si>
   <si>
     <t>.component.fluidTotalOut.valueQuantity</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>Valueset reference</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TotalIn and TotalOut are equals in the HCIM. This is why no value is defined in observation.value, we've chosen to put both values in components.</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>Fluid balance</t>
+  </si>
+  <si>
+    <t>https://simplifier.net/medico/observation-fluidbalance-1</t>
+  </si>
+  <si>
+    <t>This profile is too strict and does not fit our information model. Not relevant to our project.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -395,6 +462,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -479,10 +558,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -529,8 +609,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,6 +631,142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,6 +876,1385 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6147" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6147"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6148" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6148"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6149" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6150" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6150"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6152" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6152"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6153" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6153"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6154" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6154"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6155" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6155"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6156" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6156"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6157" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6157"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6158" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6158"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6159" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6159"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6160" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6160"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6161" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6161"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6162" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6162"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6163"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6164"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6165"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6166"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6167"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6168"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6170"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6171"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6172"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6173"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6174"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6175"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6176"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6177"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6178" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6178"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1079,10 +2684,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1287,11 +2892,874 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6146" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6147" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6148" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6149" r:id="rId8" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6150" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6151" r:id="rId10" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6152" r:id="rId11" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6153" r:id="rId12" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6154" r:id="rId13" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6155" r:id="rId14" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6156" r:id="rId15" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6157" r:id="rId16" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6158" r:id="rId17" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6159" r:id="rId18" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6160" r:id="rId19" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6161" r:id="rId20" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6162" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6163" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6164" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6165" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6166" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6167" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6168" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6169" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6170" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6171" r:id="rId30" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6172" r:id="rId31" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6173" r:id="rId32" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6174" r:id="rId33" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6175" r:id="rId34" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6176" r:id="rId35" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6177" r:id="rId36" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6178" r:id="rId37" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R8"/>
+  <dimension ref="B2:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1305,12 +3773,12 @@
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="16" max="18" width="33" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1346,12 +3814,20 @@
       <c r="P2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="25.5">
+    <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
@@ -1381,8 +3857,10 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.5">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="25.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>73</v>
@@ -1416,10 +3894,14 @@
       <c r="P4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="25.5">
+      <c r="Q4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" ht="63.75">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>81</v>
@@ -1453,10 +3935,14 @@
       <c r="P5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="38.25">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>87</v>
@@ -1490,10 +3976,12 @@
       <c r="P6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>92</v>
@@ -1525,10 +4013,14 @@
       <c r="P7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="Q7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>98</v>
@@ -1560,8 +4052,12 @@
       <c r="P8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -1618,21 +4114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -1823,24 +4304,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6E7AE7-456E-4C93-AAE7-62D72B615836}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1857,4 +4336,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/FluidBalance - STU3.xlsx
+++ b/Mappings/FluidBalance - STU3.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52C345-0A21-4DA3-8DDC-AD8F57D71B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Research" sheetId="6" r:id="rId4"/>
     <sheet name="Data" sheetId="4" r:id="rId5"/>
     <sheet name="Terms of Use" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -435,8 +441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -471,6 +477,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -609,25 +616,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,7 +791,13 @@
     <xdr:ext cx="2856900" cy="618995"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -816,7 +832,13 @@
     <xdr:ext cx="1428750" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -851,7 +873,13 @@
     <xdr:ext cx="4676775" cy="3533775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -903,11 +931,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -915,6 +946,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -944,11 +998,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -956,6 +1013,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -985,11 +1065,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -997,6 +1080,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1026,11 +1132,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1038,6 +1147,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1067,11 +1199,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1079,6 +1214,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1108,11 +1266,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1120,6 +1281,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1149,11 +1333,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1161,6 +1348,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1190,11 +1400,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1202,6 +1415,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1231,11 +1467,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1243,6 +1482,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1272,11 +1534,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1284,6 +1549,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1313,11 +1601,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1325,6 +1616,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1354,11 +1668,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1366,6 +1683,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1395,11 +1735,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1407,6 +1750,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1436,11 +1802,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1448,6 +1817,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1477,11 +1869,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1489,6 +1884,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1518,11 +1936,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1530,6 +1951,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1559,11 +2003,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1571,6 +2018,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1600,11 +2070,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1612,6 +2085,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1641,11 +2137,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1653,6 +2152,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1682,11 +2204,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1694,6 +2219,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1723,11 +2271,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1735,6 +2286,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1764,11 +2338,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1776,6 +2353,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1805,11 +2405,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1817,6 +2420,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1846,11 +2472,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1858,6 +2487,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1887,11 +2539,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1899,6 +2554,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1928,11 +2606,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1940,6 +2621,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1969,11 +2673,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1981,6 +2688,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2010,11 +2740,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2022,6 +2755,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2051,11 +2807,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2063,6 +2822,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2092,11 +2874,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2104,6 +2889,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2113,14 +2921,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
@@ -2128,11 +2941,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2140,23 +2956,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
@@ -2164,11 +3008,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6176"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2176,23 +3023,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
@@ -2200,11 +3075,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2212,23 +3090,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6178" name="Check Box 34" hidden="1">
@@ -2236,11 +3142,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6178"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022180000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2248,10 +3157,33 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2259,7 +3191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2301,7 +3233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2334,9 +3266,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2369,6 +3318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2544,18 +3510,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +3545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2587,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +3561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +3569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +3577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2619,7 +3585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2627,7 +3593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +3601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="25.5">
+    <row r="12" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2643,7 +3609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.5">
+    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +3617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
@@ -2661,7 +3627,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2672,24 +3638,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2697,7 +3663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2705,7 +3671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2713,7 +3679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2721,7 +3687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2729,7 +3695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2737,13 +3703,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2751,25 +3717,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +3743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2785,7 +3751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +3759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2801,7 +3767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +3775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2817,7 +3783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -2825,7 +3791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2833,7 +3799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2841,13 +3807,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2855,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
@@ -2875,14 +3841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -2892,107 +3858,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="18" t="s">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3755,14 +4721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -3778,7 +4744,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
@@ -3827,7 +4793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="25.5">
+    <row r="3" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
@@ -3860,7 +4826,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="25.5">
+    <row r="4" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>73</v>
@@ -3901,7 +4867,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20" ht="63.75">
+    <row r="5" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>81</v>
@@ -3942,7 +4908,7 @@
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="38.25">
+    <row r="6" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>87</v>
@@ -3981,7 +4947,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>92</v>
@@ -4020,7 +4986,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>98</v>
@@ -4068,42 +5034,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25">
+    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5">
+    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25">
+    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
@@ -4114,6 +5080,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4304,22 +5285,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6E7AE7-456E-4C93-AAE7-62D72B615836}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4336,21 +5319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Mappings/FluidBalance - STU3.xlsx
+++ b/Mappings/FluidBalance - STU3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52C345-0A21-4DA3-8DDC-AD8F57D71B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -366,12 +360,6 @@
     <t>.effectivePeriod.end</t>
   </si>
   <si>
-    <t>.component.fluidTotalIn.valueQuantity</t>
-  </si>
-  <si>
-    <t>.component.fluidTotalOut.valueQuantity</t>
-  </si>
-  <si>
     <t>Equivalence</t>
   </si>
   <si>
@@ -437,12 +425,18 @@
   <si>
     <t>This profile is too strict and does not fit our information model. Not relevant to our project.</t>
   </si>
+  <si>
+    <t>.component.FluidTotalIn.valueQuantity</t>
+  </si>
+  <si>
+    <t>.component.FluidTotalOut.valueQuantity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -628,7 +622,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,7 +788,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,7 +829,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +870,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,14 +925,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -946,29 +937,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -998,14 +966,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1013,29 +978,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1065,14 +1007,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1080,29 +1019,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1132,14 +1048,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1147,29 +1060,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1199,14 +1089,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1214,29 +1101,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1266,14 +1130,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1281,29 +1142,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1333,14 +1171,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1348,29 +1183,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1400,14 +1212,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1415,29 +1224,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1467,14 +1253,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1482,29 +1265,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1534,14 +1294,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1549,29 +1306,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1601,14 +1335,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1616,29 +1347,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1668,14 +1376,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1683,29 +1388,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1735,14 +1417,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1750,29 +1429,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1802,14 +1458,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1817,29 +1470,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1869,14 +1499,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1884,29 +1511,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1936,14 +1540,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1951,29 +1552,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2003,14 +1581,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2018,29 +1593,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2070,14 +1622,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2085,29 +1634,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2137,14 +1663,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2152,29 +1675,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2204,14 +1704,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2219,29 +1716,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2271,14 +1745,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2286,29 +1757,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2338,14 +1786,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2353,29 +1798,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2405,14 +1827,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2420,29 +1839,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2472,14 +1868,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2487,29 +1880,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2539,14 +1909,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2554,29 +1921,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2606,14 +1950,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2621,29 +1962,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2673,14 +1991,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2688,29 +2003,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2740,14 +2032,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2755,29 +2044,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2807,14 +2073,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2822,29 +2085,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2874,14 +2114,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2889,29 +2126,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2941,14 +2155,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2956,29 +2167,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3008,14 +2196,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6176"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3023,29 +2208,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3075,14 +2237,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3090,29 +2249,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3142,14 +2278,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6178"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022180000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3157,29 +2290,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3191,7 +2301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3233,7 +2343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3266,26 +2376,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3318,23 +2411,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3510,18 +2586,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3537,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3545,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +2629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3561,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3577,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3585,7 +2661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3593,7 +2669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3601,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" ht="25.5">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +2685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="25.5">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -3617,7 +2693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
@@ -3627,7 +2703,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3638,24 +2714,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +2739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -3671,7 +2747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3679,7 +2755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3687,7 +2763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3695,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3703,13 +2779,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3717,25 +2793,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +2819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +2827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -3759,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -3767,7 +2843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -3775,7 +2851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -3791,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -3799,7 +2875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3807,13 +2883,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
@@ -3821,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
@@ -3841,14 +2917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -3858,107 +2934,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="C8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="17" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4721,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4744,7 +3820,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
@@ -4781,19 +3857,19 @@
         <v>108</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
@@ -4826,7 +3902,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="25.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>73</v>
@@ -4861,13 +3937,13 @@
         <v>110</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="63.75">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>81</v>
@@ -4899,16 +3975,16 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="14" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>87</v>
@@ -4940,14 +4016,14 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="14" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>92</v>
@@ -4980,13 +4056,13 @@
         <v>111</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>98</v>
@@ -5019,7 +4095,7 @@
         <v>112</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="2"/>
@@ -5034,42 +4110,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="140.25">
       <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="25.5">
       <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="38.25">
       <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
@@ -5080,21 +4156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -5285,24 +4346,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6E7AE7-456E-4C93-AAE7-62D72B615836}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5319,4 +4378,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/FluidBalance - STU3.xlsx
+++ b/Mappings/FluidBalance - STU3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>Subject</t>
   </si>
@@ -788,7 +788,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +829,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -870,7 +870,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3801,7 @@
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3977,7 +3977,9 @@
       <c r="P5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="R5" s="14"/>
       <c r="S5" s="2" t="s">
         <v>116</v>
@@ -4018,7 +4020,9 @@
       <c r="P6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="R6" s="14"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4156,6 +4160,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -4346,22 +4365,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6E7AE7-456E-4C93-AAE7-62D72B615836}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4378,21 +4399,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074CF55D-C3B1-4AF2-905A-ED84E325F4F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA1F4FB-A6CE-4AAF-8EB2-21729483ED50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>